--- a/biology/Botanique/Soldanelle_velue/Soldanelle_velue.xlsx
+++ b/biology/Botanique/Soldanelle_velue/Soldanelle_velue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Soldanella villosa
 La Soldanelle velue, également appelée Grande soldanelle (Soldanella villosa), est une espèce de plantes à fleurs de la famille des Primulacées et du genre Soldanella (les soldanelles) endémique du Pays basque et des Monts Cantabriques. 
-Sa cueillette est réglementée[1],[2].
+Sa cueillette est réglementée,.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante vivace.
 			Soldanella villosa (fructification)
@@ -547,10 +561,12 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle pousse dans les ravins ombragés et humides du Pays basque et des Monts Cantabriques, sur silice, entre 70 et 870 m d'altitude[3],[2].
-En France, elle n'est présente que dans quatre localités du Pays basque[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle pousse dans les ravins ombragés et humides du Pays basque et des Monts Cantabriques, sur silice, entre 70 et 870 m d'altitude,.
+En France, elle n'est présente que dans quatre localités du Pays basque.
 </t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, l'espèce est protégée sur l'ensemble du territoire métropolitain.
 </t>
